--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/76/FD_Curve.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/76/FD_Curve.xlsx
@@ -477,10 +477,10 @@
         <v>0.0620038</v>
       </c>
       <c r="B4" t="n">
-        <v>2.24424</v>
+        <v>2.22106</v>
       </c>
       <c r="C4" t="n">
-        <v>2244.24</v>
+        <v>2221.06</v>
       </c>
     </row>
     <row r="5">
@@ -488,10 +488,10 @@
         <v>0.0929936</v>
       </c>
       <c r="B5" t="n">
-        <v>2.71788</v>
+        <v>2.34616</v>
       </c>
       <c r="C5" t="n">
-        <v>2717.88</v>
+        <v>2346.16</v>
       </c>
     </row>
     <row r="6">
@@ -499,10 +499,10 @@
         <v>0.12397</v>
       </c>
       <c r="B6" t="n">
-        <v>2.73944</v>
+        <v>2.39645</v>
       </c>
       <c r="C6" t="n">
-        <v>2739.44</v>
+        <v>2396.45</v>
       </c>
     </row>
     <row r="7">
@@ -510,10 +510,10 @@
         <v>0.154946</v>
       </c>
       <c r="B7" t="n">
-        <v>2.74489</v>
+        <v>2.44186</v>
       </c>
       <c r="C7" t="n">
-        <v>2744.89</v>
+        <v>2441.86</v>
       </c>
     </row>
     <row r="8">
@@ -521,10 +521,10 @@
         <v>0.185922</v>
       </c>
       <c r="B8" t="n">
-        <v>2.78375</v>
+        <v>2.49757</v>
       </c>
       <c r="C8" t="n">
-        <v>2783.75</v>
+        <v>2497.57</v>
       </c>
     </row>
     <row r="9">
@@ -532,10 +532,10 @@
         <v>0.216899</v>
       </c>
       <c r="B9" t="n">
-        <v>2.78845</v>
+        <v>2.53318</v>
       </c>
       <c r="C9" t="n">
-        <v>2788.45</v>
+        <v>2533.18</v>
       </c>
     </row>
     <row r="10">
@@ -543,10 +543,10 @@
         <v>0.247875</v>
       </c>
       <c r="B10" t="n">
-        <v>2.81809</v>
+        <v>2.56526</v>
       </c>
       <c r="C10" t="n">
-        <v>2818.09</v>
+        <v>2565.26</v>
       </c>
     </row>
     <row r="11">
@@ -554,10 +554,10 @@
         <v>0.278804</v>
       </c>
       <c r="B11" t="n">
-        <v>2.82543</v>
+        <v>2.59476</v>
       </c>
       <c r="C11" t="n">
-        <v>2825.43</v>
+        <v>2594.76</v>
       </c>
     </row>
     <row r="12">
@@ -565,10 +565,10 @@
         <v>0.309729</v>
       </c>
       <c r="B12" t="n">
-        <v>2.84261</v>
+        <v>2.62627</v>
       </c>
       <c r="C12" t="n">
-        <v>2842.61</v>
+        <v>2626.27</v>
       </c>
     </row>
     <row r="13">
@@ -576,10 +576,10 @@
         <v>0.340654</v>
       </c>
       <c r="B13" t="n">
-        <v>2.85856</v>
+        <v>2.65257</v>
       </c>
       <c r="C13" t="n">
-        <v>2858.56</v>
+        <v>2652.57</v>
       </c>
     </row>
     <row r="14">
@@ -587,10 +587,10 @@
         <v>0.371579</v>
       </c>
       <c r="B14" t="n">
-        <v>2.87291</v>
+        <v>2.67804</v>
       </c>
       <c r="C14" t="n">
-        <v>2872.91</v>
+        <v>2678.04</v>
       </c>
     </row>
     <row r="15">
@@ -598,10 +598,10 @@
         <v>0.402504</v>
       </c>
       <c r="B15" t="n">
-        <v>2.88504</v>
+        <v>2.70315</v>
       </c>
       <c r="C15" t="n">
-        <v>2885.04</v>
+        <v>2703.15</v>
       </c>
     </row>
     <row r="16">
@@ -609,10 +609,10 @@
         <v>0.433429</v>
       </c>
       <c r="B16" t="n">
-        <v>2.89739</v>
+        <v>2.72688</v>
       </c>
       <c r="C16" t="n">
-        <v>2897.39</v>
+        <v>2726.88</v>
       </c>
     </row>
     <row r="17">
@@ -620,32 +620,32 @@
         <v>0.464349</v>
       </c>
       <c r="B17" t="n">
-        <v>2.90903</v>
+        <v>2.74941</v>
       </c>
       <c r="C17" t="n">
-        <v>2909.03</v>
+        <v>2749.41</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.495275</v>
+        <v>0.495274</v>
       </c>
       <c r="B18" t="n">
-        <v>2.9198</v>
+        <v>2.7712</v>
       </c>
       <c r="C18" t="n">
-        <v>2919.8</v>
+        <v>2771.2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.5262</v>
+        <v>0.526199</v>
       </c>
       <c r="B19" t="n">
-        <v>2.93058</v>
+        <v>2.7922</v>
       </c>
       <c r="C19" t="n">
-        <v>2930.58</v>
+        <v>2792.2</v>
       </c>
     </row>
     <row r="20">
@@ -653,10 +653,10 @@
         <v>0.557125</v>
       </c>
       <c r="B20" t="n">
-        <v>2.941</v>
+        <v>2.81228</v>
       </c>
       <c r="C20" t="n">
-        <v>2941</v>
+        <v>2812.28</v>
       </c>
     </row>
     <row r="21">
@@ -664,10 +664,10 @@
         <v>0.58805</v>
       </c>
       <c r="B21" t="n">
-        <v>2.95083</v>
+        <v>2.8318</v>
       </c>
       <c r="C21" t="n">
-        <v>2950.83</v>
+        <v>2831.8</v>
       </c>
     </row>
     <row r="22">
@@ -675,10 +675,10 @@
         <v>0.619092</v>
       </c>
       <c r="B22" t="n">
-        <v>2.96029</v>
+        <v>2.85079</v>
       </c>
       <c r="C22" t="n">
-        <v>2960.29</v>
+        <v>2850.79</v>
       </c>
     </row>
     <row r="23">
@@ -686,10 +686,10 @@
         <v>0.650269</v>
       </c>
       <c r="B23" t="n">
-        <v>2.96946</v>
+        <v>2.86932</v>
       </c>
       <c r="C23" t="n">
-        <v>2969.46</v>
+        <v>2869.32</v>
       </c>
     </row>
     <row r="24">
@@ -697,10 +697,10 @@
         <v>0.681441</v>
       </c>
       <c r="B24" t="n">
-        <v>2.97839</v>
+        <v>2.88728</v>
       </c>
       <c r="C24" t="n">
-        <v>2978.39</v>
+        <v>2887.28</v>
       </c>
     </row>
     <row r="25">
@@ -708,10 +708,10 @@
         <v>0.712614</v>
       </c>
       <c r="B25" t="n">
-        <v>2.98701</v>
+        <v>2.90472</v>
       </c>
       <c r="C25" t="n">
-        <v>2987.01</v>
+        <v>2904.72</v>
       </c>
     </row>
     <row r="26">
@@ -719,10 +719,10 @@
         <v>0.743791</v>
       </c>
       <c r="B26" t="n">
-        <v>2.99534</v>
+        <v>2.92169</v>
       </c>
       <c r="C26" t="n">
-        <v>2995.34</v>
+        <v>2921.69</v>
       </c>
     </row>
     <row r="27">
@@ -730,10 +730,10 @@
         <v>0.774963</v>
       </c>
       <c r="B27" t="n">
-        <v>3.00342</v>
+        <v>2.93825</v>
       </c>
       <c r="C27" t="n">
-        <v>3003.42</v>
+        <v>2938.25</v>
       </c>
     </row>
     <row r="28">
@@ -741,10 +741,10 @@
         <v>0.806136</v>
       </c>
       <c r="B28" t="n">
-        <v>3.01126</v>
+        <v>2.95437</v>
       </c>
       <c r="C28" t="n">
-        <v>3011.26</v>
+        <v>2954.37</v>
       </c>
     </row>
     <row r="29">
@@ -752,21 +752,21 @@
         <v>0.837313</v>
       </c>
       <c r="B29" t="n">
-        <v>3.01892</v>
+        <v>2.97012</v>
       </c>
       <c r="C29" t="n">
-        <v>3018.92</v>
+        <v>2970.12</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.868486</v>
+        <v>0.868485</v>
       </c>
       <c r="B30" t="n">
-        <v>3.0264</v>
+        <v>2.98548</v>
       </c>
       <c r="C30" t="n">
-        <v>3026.4</v>
+        <v>2985.48</v>
       </c>
     </row>
     <row r="31">
@@ -774,10 +774,10 @@
         <v>0.899658</v>
       </c>
       <c r="B31" t="n">
-        <v>3.03359</v>
+        <v>3.0005</v>
       </c>
       <c r="C31" t="n">
-        <v>3033.59</v>
+        <v>3000.5</v>
       </c>
     </row>
     <row r="32">
@@ -785,10 +785,10 @@
         <v>0.930835</v>
       </c>
       <c r="B32" t="n">
-        <v>3.04062</v>
+        <v>3.01516</v>
       </c>
       <c r="C32" t="n">
-        <v>3040.62</v>
+        <v>3015.16</v>
       </c>
     </row>
     <row r="33">
@@ -796,10 +796,10 @@
         <v>0.962008</v>
       </c>
       <c r="B33" t="n">
-        <v>3.04746</v>
+        <v>3.02951</v>
       </c>
       <c r="C33" t="n">
-        <v>3047.46</v>
+        <v>3029.51</v>
       </c>
     </row>
     <row r="34">
@@ -807,758 +807,758 @@
         <v>0.993185</v>
       </c>
       <c r="B34" t="n">
-        <v>3.05412</v>
+        <v>3.04355</v>
       </c>
       <c r="C34" t="n">
-        <v>3054.12</v>
+        <v>3043.55</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1.02449</v>
+        <v>1.02422</v>
       </c>
       <c r="B35" t="n">
-        <v>3.06064</v>
+        <v>3.05736</v>
       </c>
       <c r="C35" t="n">
-        <v>3060.64</v>
+        <v>3057.36</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1.05586</v>
+        <v>1.05519</v>
       </c>
       <c r="B36" t="n">
-        <v>3.06699</v>
+        <v>3.07082</v>
       </c>
       <c r="C36" t="n">
-        <v>3066.99</v>
+        <v>3070.82</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.08725</v>
+        <v>1.08616</v>
       </c>
       <c r="B37" t="n">
-        <v>3.07321</v>
+        <v>3.08404</v>
       </c>
       <c r="C37" t="n">
-        <v>3073.21</v>
+        <v>3084.04</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1.11863</v>
+        <v>1.11713</v>
       </c>
       <c r="B38" t="n">
-        <v>3.07926</v>
+        <v>3.09701</v>
       </c>
       <c r="C38" t="n">
-        <v>3079.26</v>
+        <v>3097.01</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1.15001</v>
+        <v>1.14809</v>
       </c>
       <c r="B39" t="n">
-        <v>3.08519</v>
+        <v>3.10967</v>
       </c>
       <c r="C39" t="n">
-        <v>3085.19</v>
+        <v>3109.67</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.18139</v>
+        <v>1.17906</v>
       </c>
       <c r="B40" t="n">
-        <v>3.09097</v>
+        <v>3.12212</v>
       </c>
       <c r="C40" t="n">
-        <v>3090.97</v>
+        <v>3122.12</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.21277</v>
+        <v>1.21003</v>
       </c>
       <c r="B41" t="n">
-        <v>3.09661</v>
+        <v>3.13434</v>
       </c>
       <c r="C41" t="n">
-        <v>3096.61</v>
+        <v>3134.34</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.24415</v>
+        <v>1.24099</v>
       </c>
       <c r="B42" t="n">
-        <v>3.10216</v>
+        <v>3.14631</v>
       </c>
       <c r="C42" t="n">
-        <v>3102.16</v>
+        <v>3146.31</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.27553</v>
+        <v>1.27197</v>
       </c>
       <c r="B43" t="n">
-        <v>3.10755</v>
+        <v>3.15808</v>
       </c>
       <c r="C43" t="n">
-        <v>3107.55</v>
+        <v>3158.08</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.30691</v>
+        <v>1.30293</v>
       </c>
       <c r="B44" t="n">
-        <v>3.11284</v>
+        <v>3.16966</v>
       </c>
       <c r="C44" t="n">
-        <v>3112.84</v>
+        <v>3169.66</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1.33829</v>
+        <v>1.3339</v>
       </c>
       <c r="B45" t="n">
-        <v>3.11801</v>
+        <v>3.18105</v>
       </c>
       <c r="C45" t="n">
-        <v>3118.01</v>
+        <v>3181.05</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.36967</v>
+        <v>1.36487</v>
       </c>
       <c r="B46" t="n">
-        <v>3.12307</v>
+        <v>3.19225</v>
       </c>
       <c r="C46" t="n">
-        <v>3123.07</v>
+        <v>3192.25</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.40105</v>
+        <v>1.39583</v>
       </c>
       <c r="B47" t="n">
-        <v>3.12803</v>
+        <v>3.20326</v>
       </c>
       <c r="C47" t="n">
-        <v>3128.03</v>
+        <v>3203.26</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.43244</v>
+        <v>1.4268</v>
       </c>
       <c r="B48" t="n">
-        <v>3.13288</v>
+        <v>3.21406</v>
       </c>
       <c r="C48" t="n">
-        <v>3132.88</v>
+        <v>3214.06</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.46381</v>
+        <v>1.45777</v>
       </c>
       <c r="B49" t="n">
-        <v>3.13764</v>
+        <v>3.22468</v>
       </c>
       <c r="C49" t="n">
-        <v>3137.64</v>
+        <v>3224.68</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.49519</v>
+        <v>1.48874</v>
       </c>
       <c r="B50" t="n">
-        <v>3.1423</v>
+        <v>3.23511</v>
       </c>
       <c r="C50" t="n">
-        <v>3142.3</v>
+        <v>3235.11</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.52658</v>
+        <v>1.51971</v>
       </c>
       <c r="B51" t="n">
-        <v>3.14687</v>
+        <v>3.2454</v>
       </c>
       <c r="C51" t="n">
-        <v>3146.87</v>
+        <v>3245.4</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.55796</v>
+        <v>1.55067</v>
       </c>
       <c r="B52" t="n">
-        <v>3.15134</v>
+        <v>3.25554</v>
       </c>
       <c r="C52" t="n">
-        <v>3151.34</v>
+        <v>3255.54</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1.58933</v>
+        <v>1.58164</v>
       </c>
       <c r="B53" t="n">
-        <v>3.15572</v>
+        <v>3.26549</v>
       </c>
       <c r="C53" t="n">
-        <v>3155.72</v>
+        <v>3265.49</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.62072</v>
+        <v>1.61261</v>
       </c>
       <c r="B54" t="n">
-        <v>3.16002</v>
+        <v>3.27529</v>
       </c>
       <c r="C54" t="n">
-        <v>3160.02</v>
+        <v>3275.29</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.6521</v>
+        <v>1.64358</v>
       </c>
       <c r="B55" t="n">
-        <v>3.16422</v>
+        <v>3.28494</v>
       </c>
       <c r="C55" t="n">
-        <v>3164.22</v>
+        <v>3284.94</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1.68315</v>
+        <v>1.67455</v>
       </c>
       <c r="B56" t="n">
-        <v>3.16834</v>
+        <v>3.29448</v>
       </c>
       <c r="C56" t="n">
-        <v>3168.34</v>
+        <v>3294.48</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1.71411</v>
+        <v>1.70551</v>
       </c>
       <c r="B57" t="n">
-        <v>3.17236</v>
+        <v>3.30386</v>
       </c>
       <c r="C57" t="n">
-        <v>3172.36</v>
+        <v>3303.86</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.74508</v>
+        <v>1.73648</v>
       </c>
       <c r="B58" t="n">
-        <v>3.1763</v>
+        <v>3.3131</v>
       </c>
       <c r="C58" t="n">
-        <v>3176.3</v>
+        <v>3313.1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.77605</v>
+        <v>1.76745</v>
       </c>
       <c r="B59" t="n">
-        <v>3.18016</v>
+        <v>3.32219</v>
       </c>
       <c r="C59" t="n">
-        <v>3180.16</v>
+        <v>3322.19</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1.80701</v>
+        <v>1.79842</v>
       </c>
       <c r="B60" t="n">
-        <v>3.18393</v>
+        <v>3.33118</v>
       </c>
       <c r="C60" t="n">
-        <v>3183.93</v>
+        <v>3331.18</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1.83798</v>
+        <v>1.82938</v>
       </c>
       <c r="B61" t="n">
-        <v>3.18762</v>
+        <v>3.34002</v>
       </c>
       <c r="C61" t="n">
-        <v>3187.62</v>
+        <v>3340.02</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1.86895</v>
+        <v>1.86035</v>
       </c>
       <c r="B62" t="n">
-        <v>3.19123</v>
+        <v>3.34876</v>
       </c>
       <c r="C62" t="n">
-        <v>3191.23</v>
+        <v>3348.76</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.89992</v>
+        <v>1.89132</v>
       </c>
       <c r="B63" t="n">
-        <v>3.19476</v>
+        <v>3.35736</v>
       </c>
       <c r="C63" t="n">
-        <v>3194.76</v>
+        <v>3357.36</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.93089</v>
+        <v>1.92229</v>
       </c>
       <c r="B64" t="n">
-        <v>3.19822</v>
+        <v>3.36582</v>
       </c>
       <c r="C64" t="n">
-        <v>3198.22</v>
+        <v>3365.82</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1.96185</v>
+        <v>1.95326</v>
       </c>
       <c r="B65" t="n">
-        <v>3.20161</v>
+        <v>3.37416</v>
       </c>
       <c r="C65" t="n">
-        <v>3201.61</v>
+        <v>3374.16</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1.99282</v>
+        <v>1.98422</v>
       </c>
       <c r="B66" t="n">
-        <v>3.20493</v>
+        <v>3.38241</v>
       </c>
       <c r="C66" t="n">
-        <v>3204.93</v>
+        <v>3382.41</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2.02356</v>
+        <v>2.01525</v>
       </c>
       <c r="B67" t="n">
-        <v>3.20816</v>
+        <v>3.39053</v>
       </c>
       <c r="C67" t="n">
-        <v>3208.16</v>
+        <v>3390.53</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2.05411</v>
+        <v>2.04592</v>
       </c>
       <c r="B68" t="n">
-        <v>3.21133</v>
+        <v>3.39853</v>
       </c>
       <c r="C68" t="n">
-        <v>3211.33</v>
+        <v>3398.53</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2.08466</v>
+        <v>2.07647</v>
       </c>
       <c r="B69" t="n">
-        <v>3.21445</v>
+        <v>3.40645</v>
       </c>
       <c r="C69" t="n">
-        <v>3214.45</v>
+        <v>3406.45</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2.11522</v>
+        <v>2.10703</v>
       </c>
       <c r="B70" t="n">
-        <v>3.21748</v>
+        <v>3.41425</v>
       </c>
       <c r="C70" t="n">
-        <v>3217.48</v>
+        <v>3414.25</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2.14577</v>
+        <v>2.13759</v>
       </c>
       <c r="B71" t="n">
-        <v>3.22045</v>
+        <v>3.42194</v>
       </c>
       <c r="C71" t="n">
-        <v>3220.45</v>
+        <v>3421.94</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2.17633</v>
+        <v>2.16814</v>
       </c>
       <c r="B72" t="n">
-        <v>3.22336</v>
+        <v>3.42952</v>
       </c>
       <c r="C72" t="n">
-        <v>3223.36</v>
+        <v>3429.52</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2.20688</v>
+        <v>2.1987</v>
       </c>
       <c r="B73" t="n">
-        <v>3.22619</v>
+        <v>3.43702</v>
       </c>
       <c r="C73" t="n">
-        <v>3226.19</v>
+        <v>3437.02</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2.23744</v>
+        <v>2.22925</v>
       </c>
       <c r="B74" t="n">
-        <v>3.22896</v>
+        <v>3.44443</v>
       </c>
       <c r="C74" t="n">
-        <v>3228.96</v>
+        <v>3444.43</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2.26799</v>
+        <v>2.25981</v>
       </c>
       <c r="B75" t="n">
-        <v>3.23166</v>
+        <v>3.45171</v>
       </c>
       <c r="C75" t="n">
-        <v>3231.66</v>
+        <v>3451.71</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2.29855</v>
+        <v>2.29036</v>
       </c>
       <c r="B76" t="n">
-        <v>3.23431</v>
+        <v>3.45891</v>
       </c>
       <c r="C76" t="n">
-        <v>3234.31</v>
+        <v>3458.91</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2.3291</v>
+        <v>2.32091</v>
       </c>
       <c r="B77" t="n">
-        <v>3.2369</v>
+        <v>3.46602</v>
       </c>
       <c r="C77" t="n">
-        <v>3236.9</v>
+        <v>3466.02</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2.3604</v>
+        <v>2.35147</v>
       </c>
       <c r="B78" t="n">
-        <v>3.23948</v>
+        <v>3.47304</v>
       </c>
       <c r="C78" t="n">
-        <v>3239.48</v>
+        <v>3473.04</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2.39197</v>
+        <v>2.38202</v>
       </c>
       <c r="B79" t="n">
-        <v>3.24203</v>
+        <v>3.47996</v>
       </c>
       <c r="C79" t="n">
-        <v>3242.03</v>
+        <v>3479.96</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2.42354</v>
+        <v>2.41258</v>
       </c>
       <c r="B80" t="n">
-        <v>3.2445</v>
+        <v>3.48682</v>
       </c>
       <c r="C80" t="n">
-        <v>3244.5</v>
+        <v>3486.82</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2.45512</v>
+        <v>2.44403</v>
       </c>
       <c r="B81" t="n">
-        <v>3.24691</v>
+        <v>3.49379</v>
       </c>
       <c r="C81" t="n">
-        <v>3246.91</v>
+        <v>3493.79</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2.48669</v>
+        <v>2.4756</v>
       </c>
       <c r="B82" t="n">
-        <v>3.24927</v>
+        <v>3.50069</v>
       </c>
       <c r="C82" t="n">
-        <v>3249.27</v>
+        <v>3500.69</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2.51826</v>
+        <v>2.50717</v>
       </c>
       <c r="B83" t="n">
-        <v>3.25157</v>
+        <v>3.50749</v>
       </c>
       <c r="C83" t="n">
-        <v>3251.57</v>
+        <v>3507.49</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2.54984</v>
+        <v>2.53875</v>
       </c>
       <c r="B84" t="n">
-        <v>3.2538</v>
+        <v>3.5142</v>
       </c>
       <c r="C84" t="n">
-        <v>3253.8</v>
+        <v>3514.2</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2.58141</v>
+        <v>2.57032</v>
       </c>
       <c r="B85" t="n">
-        <v>3.25597</v>
+        <v>3.5208</v>
       </c>
       <c r="C85" t="n">
-        <v>3255.97</v>
+        <v>3520.8</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2.61298</v>
+        <v>2.60189</v>
       </c>
       <c r="B86" t="n">
-        <v>3.25809</v>
+        <v>3.52732</v>
       </c>
       <c r="C86" t="n">
-        <v>3258.09</v>
+        <v>3527.32</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2.64456</v>
+        <v>2.63346</v>
       </c>
       <c r="B87" t="n">
-        <v>3.26015</v>
+        <v>3.53373</v>
       </c>
       <c r="C87" t="n">
-        <v>3260.15</v>
+        <v>3533.73</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2.67613</v>
+        <v>2.66504</v>
       </c>
       <c r="B88" t="n">
-        <v>3.26215</v>
+        <v>3.54004</v>
       </c>
       <c r="C88" t="n">
-        <v>3262.15</v>
+        <v>3540.04</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2.70762</v>
+        <v>2.69661</v>
       </c>
       <c r="B89" t="n">
-        <v>3.26409</v>
+        <v>3.54631</v>
       </c>
       <c r="C89" t="n">
-        <v>3264.09</v>
+        <v>3546.31</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2.73834</v>
+        <v>2.72818</v>
       </c>
       <c r="B90" t="n">
-        <v>3.26597</v>
+        <v>3.55247</v>
       </c>
       <c r="C90" t="n">
-        <v>3265.97</v>
+        <v>3552.47</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2.76906</v>
+        <v>2.75976</v>
       </c>
       <c r="B91" t="n">
-        <v>3.26779</v>
+        <v>3.55854</v>
       </c>
       <c r="C91" t="n">
-        <v>3267.79</v>
+        <v>3558.54</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2.79978</v>
+        <v>2.79133</v>
       </c>
       <c r="B92" t="n">
-        <v>3.26956</v>
+        <v>3.56455</v>
       </c>
       <c r="C92" t="n">
-        <v>3269.56</v>
+        <v>3564.55</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2.8305</v>
+        <v>2.8229</v>
       </c>
       <c r="B93" t="n">
-        <v>3.27127</v>
+        <v>3.57047</v>
       </c>
       <c r="C93" t="n">
-        <v>3271.27</v>
+        <v>3570.47</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2.86122</v>
+        <v>2.85448</v>
       </c>
       <c r="B94" t="n">
-        <v>3.27293</v>
+        <v>3.5763</v>
       </c>
       <c r="C94" t="n">
-        <v>3272.93</v>
+        <v>3576.3</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2.89194</v>
+        <v>2.88605</v>
       </c>
       <c r="B95" t="n">
-        <v>3.27453</v>
+        <v>3.58207</v>
       </c>
       <c r="C95" t="n">
-        <v>3274.53</v>
+        <v>3582.07</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2.92266</v>
+        <v>2.91763</v>
       </c>
       <c r="B96" t="n">
-        <v>3.27606</v>
+        <v>3.58774</v>
       </c>
       <c r="C96" t="n">
-        <v>3276.06</v>
+        <v>3587.74</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2.95338</v>
+        <v>2.9492</v>
       </c>
       <c r="B97" t="n">
-        <v>3.27755</v>
+        <v>3.59334</v>
       </c>
       <c r="C97" t="n">
-        <v>3277.55</v>
+        <v>3593.34</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2.9841</v>
+        <v>2.98077</v>
       </c>
       <c r="B98" t="n">
-        <v>3.27897</v>
+        <v>3.59887</v>
       </c>
       <c r="C98" t="n">
-        <v>3278.97</v>
+        <v>3598.87</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>3.01482</v>
+        <v>3.01235</v>
       </c>
       <c r="B99" t="n">
-        <v>3.28034</v>
+        <v>3.6043</v>
       </c>
       <c r="C99" t="n">
-        <v>3280.34</v>
+        <v>3604.3</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>3.04554</v>
+        <v>3.04392</v>
       </c>
       <c r="B100" t="n">
-        <v>3.28165</v>
+        <v>3.60965</v>
       </c>
       <c r="C100" t="n">
-        <v>3281.65</v>
+        <v>3609.65</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>3.07626</v>
+        <v>3.07549</v>
       </c>
       <c r="B101" t="n">
-        <v>3.28291</v>
+        <v>3.61491</v>
       </c>
       <c r="C101" t="n">
-        <v>3282.91</v>
+        <v>3614.91</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>3.10698</v>
+        <v>3.10706</v>
       </c>
       <c r="B102" t="n">
-        <v>3.28411</v>
+        <v>3.62011</v>
       </c>
       <c r="C102" t="n">
-        <v>3284.11</v>
+        <v>3620.11</v>
       </c>
     </row>
   </sheetData>
